--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6</t>
+    <t>0.2.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:16:33-05:00</t>
+    <t>2023-11-15T14:14:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T15:35:14-05:00</t>
+    <t>2024-05-18T11:51:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -385,89 +388,89 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -485,44 +488,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
+++ b/docs/CodeSystem-AllergyObservedHistoricCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
